--- a/cluster_centers.xlsx
+++ b/cluster_centers.xlsx
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,52 +480,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5638382236320375</v>
+        <v>0.3415233415233411</v>
       </c>
       <c r="C2">
-        <v>0.47898493259318</v>
+        <v>0.5036855036855037</v>
       </c>
       <c r="D2">
-        <v>58334.65503568596</v>
+        <v>62285.01228501229</v>
       </c>
       <c r="E2">
-        <v>1.456780333068993</v>
+        <v>3.185503685503688</v>
       </c>
       <c r="F2">
-        <v>0.4210943695479789</v>
+        <v>0.4938574938574954</v>
       </c>
       <c r="G2">
-        <v>1.452815226011102</v>
+        <v>1.798116298116298</v>
       </c>
       <c r="H2">
-        <v>3.061062648691514</v>
+        <v>2.298525798525798</v>
       </c>
       <c r="I2">
-        <v>0.6423473433782712</v>
+        <v>0.9877149877149862</v>
       </c>
       <c r="J2">
-        <v>1.024583663758922</v>
+        <v>1.884111384111385</v>
       </c>
       <c r="K2">
-        <v>1.770816812053924</v>
+        <v>6.891072891072893</v>
       </c>
       <c r="L2">
-        <v>-0.04657372991236894</v>
+        <v>-0.0140578534063509</v>
       </c>
       <c r="M2">
-        <v>-0.08958853542450365</v>
+        <v>-0.002816318649834046</v>
       </c>
       <c r="N2">
-        <v>2014.022997620936</v>
+        <v>2015.786940305637</v>
       </c>
       <c r="O2">
-        <v>-0.02153307889189726</v>
+        <v>-0.03038729376164624</v>
       </c>
       <c r="P2">
-        <v>-0.04372800646421697</v>
+        <v>-0.08810610125376807</v>
       </c>
       <c r="Q2">
-        <v>1963.714512291832</v>
+        <v>1946.895986895987</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -533,52 +533,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2506504770164782</v>
+        <v>0.4351676154332693</v>
       </c>
       <c r="C3">
-        <v>0.4379878577623591</v>
+        <v>0.5281467425679949</v>
       </c>
       <c r="D3">
-        <v>55221.16218560278</v>
+        <v>46401.01201771031</v>
       </c>
       <c r="E3">
-        <v>1.39028620988725</v>
+        <v>2.801391524351678</v>
       </c>
       <c r="F3">
-        <v>0.4475281873373815</v>
+        <v>0.2909550917141066</v>
       </c>
       <c r="G3">
-        <v>0.5368603642671301</v>
+        <v>2.320050600885515</v>
       </c>
       <c r="H3">
-        <v>3.413703382480486</v>
+        <v>2.079063883617963</v>
       </c>
       <c r="I3">
-        <v>0.9713790112749343</v>
+        <v>0.0006325110689456848</v>
       </c>
       <c r="J3">
-        <v>0.3191673894189093</v>
+        <v>1.766603415559773</v>
       </c>
       <c r="K3">
-        <v>1.008673026886383</v>
+        <v>1.268817204301072</v>
       </c>
       <c r="L3">
-        <v>-0.03842862532390796</v>
+        <v>-0.05365211205078418</v>
       </c>
       <c r="M3">
-        <v>-0.008077448503800815</v>
+        <v>-0.0462173997785256</v>
       </c>
       <c r="N3">
-        <v>2015.764041876421</v>
+        <v>2015.731728609191</v>
       </c>
       <c r="O3">
-        <v>0.6056396065561046</v>
+        <v>-0.03636330237619647</v>
       </c>
       <c r="P3">
-        <v>-0.3163780737916513</v>
+        <v>-0.03787646167120807</v>
       </c>
       <c r="Q3">
-        <v>1966.914137033825</v>
+        <v>1950.134092346616</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -586,52 +586,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5801056338028165</v>
+        <v>0.4581178903826265</v>
       </c>
       <c r="C4">
-        <v>0.5211267605633803</v>
+        <v>0.4937952430196483</v>
       </c>
       <c r="D4">
-        <v>36725.35211267605</v>
+        <v>53826.26680455015</v>
       </c>
       <c r="E4">
-        <v>0.07570422535211141</v>
+        <v>1.410548086866598</v>
       </c>
       <c r="F4">
-        <v>0.05721830985915677</v>
+        <v>0.4136504653567741</v>
       </c>
       <c r="G4">
-        <v>2.795774647887324</v>
+        <v>1.143743536711479</v>
       </c>
       <c r="H4">
-        <v>3.017605633802817</v>
+        <v>1.988107549120992</v>
       </c>
       <c r="I4">
-        <v>0.9999999999999993</v>
+        <v>0.7916235780765251</v>
       </c>
       <c r="J4">
-        <v>1.602992957746479</v>
+        <v>0.7699069286452955</v>
       </c>
       <c r="K4">
-        <v>3.709507042253522</v>
+        <v>1.2812823164426</v>
       </c>
       <c r="L4">
-        <v>-0.01656565992373415</v>
+        <v>-0.09286584300850247</v>
       </c>
       <c r="M4">
-        <v>-0.007951431696278096</v>
+        <v>-0.01184538021913578</v>
       </c>
       <c r="N4">
-        <v>2015.871572020582</v>
+        <v>2014.217166494312</v>
       </c>
       <c r="O4">
-        <v>0.000431673465463505</v>
+        <v>-0.0710626912023979</v>
       </c>
       <c r="P4">
-        <v>-0.0666886709940121</v>
+        <v>-0.04778126439700556</v>
       </c>
       <c r="Q4">
-        <v>1974.74647887324</v>
+        <v>1962.892450879007</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -639,52 +639,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5972222222222221</v>
+        <v>0.4999999999999996</v>
       </c>
       <c r="C5">
-        <v>0.4976851851851852</v>
+        <v>0.5145748987854251</v>
       </c>
       <c r="D5">
-        <v>80300.92592592591</v>
+        <v>24522.26720647777</v>
       </c>
       <c r="E5">
-        <v>0.01851851851851793</v>
+        <v>1.604453441295546</v>
       </c>
       <c r="F5">
-        <v>0.03240740740740733</v>
+        <v>0.8672064777327937</v>
       </c>
       <c r="G5">
-        <v>0.08796296296296235</v>
+        <v>2.494331983805669</v>
       </c>
       <c r="H5">
-        <v>2.958333333333333</v>
+        <v>0.8161943319838114</v>
       </c>
       <c r="I5">
-        <v>0.523148148148148</v>
+        <v>0.9854251012145734</v>
       </c>
       <c r="J5">
-        <v>2.953703703703704</v>
+        <v>0.9255060728744953</v>
       </c>
       <c r="K5">
-        <v>9.844907407407398</v>
+        <v>0.8518218623481684</v>
       </c>
       <c r="L5">
-        <v>0.09576324962780627</v>
+        <v>-0.07720851381022051</v>
       </c>
       <c r="M5">
-        <v>-0.06871210624358171</v>
+        <v>-0.05794977683714046</v>
       </c>
       <c r="N5">
-        <v>2015.42862391636</v>
+        <v>2015.791808883745</v>
       </c>
       <c r="O5">
-        <v>-0.03230204322200079</v>
+        <v>0.01076066328942775</v>
       </c>
       <c r="P5">
-        <v>-0.04697738109736101</v>
+        <v>-0.097228785126195</v>
       </c>
       <c r="Q5">
-        <v>1973.043981481482</v>
+        <v>1962.795141700405</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -692,52 +692,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3333333333333328</v>
+        <v>0.5399361022364215</v>
       </c>
       <c r="C6">
-        <v>0.4981884057971014</v>
+        <v>0.5023961661341853</v>
       </c>
       <c r="D6">
-        <v>25661.23188405798</v>
+        <v>60511.18210862619</v>
       </c>
       <c r="E6">
-        <v>1.894021739130435</v>
+        <v>0.06070287539936126</v>
       </c>
       <c r="F6">
-        <v>0.2844202898550737</v>
+        <v>0.0183706070287557</v>
       </c>
       <c r="G6">
-        <v>3.207427536231886</v>
+        <v>1.666134185303514</v>
       </c>
       <c r="H6">
-        <v>0.4800724637681137</v>
+        <v>3.515175718849841</v>
       </c>
       <c r="I6">
-        <v>0.6974637681159419</v>
+        <v>0.84185303514377</v>
       </c>
       <c r="J6">
-        <v>1.417572463768116</v>
+        <v>2.103833865814697</v>
       </c>
       <c r="K6">
-        <v>1.570652173913044</v>
+        <v>6.668530351437687</v>
       </c>
       <c r="L6">
-        <v>-0.07892910156876676</v>
+        <v>0.03394214035322328</v>
       </c>
       <c r="M6">
-        <v>-0.0873013501054616</v>
+        <v>-0.02097191304213892</v>
       </c>
       <c r="N6">
-        <v>2015.670889608215</v>
+        <v>2015.639624619361</v>
       </c>
       <c r="O6">
-        <v>0.006583287311984688</v>
+        <v>-0.02975136685779896</v>
       </c>
       <c r="P6">
-        <v>-0.07876949658248764</v>
+        <v>-0.06846071319576844</v>
       </c>
       <c r="Q6">
-        <v>1952.518115942029</v>
+        <v>1973.554313099042</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -745,52 +745,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2449392712550602</v>
+        <v>0.8933717579250722</v>
       </c>
       <c r="C7">
-        <v>0.5222672064777327</v>
+        <v>0.4956772334293948</v>
       </c>
       <c r="D7">
-        <v>32267.20647773282</v>
+        <v>41278.81844380405</v>
       </c>
       <c r="E7">
-        <v>0.9949392712550607</v>
+        <v>0.3065561959654217</v>
       </c>
       <c r="F7">
-        <v>0.06781376518218785</v>
+        <v>0.2042507204610911</v>
       </c>
       <c r="G7">
-        <v>0.6619433198380567</v>
+        <v>2.026296829971181</v>
       </c>
       <c r="H7">
-        <v>0.1325910931174077</v>
+        <v>2.304394812680115</v>
       </c>
       <c r="I7">
-        <v>0.9271255060728741</v>
+        <v>0.0003602305475516321</v>
       </c>
       <c r="J7">
-        <v>0.1204453441295574</v>
+        <v>1.164985590778099</v>
       </c>
       <c r="K7">
-        <v>0.2429149797570811</v>
+        <v>1.07456772334293</v>
       </c>
       <c r="L7">
-        <v>-0.1355057392123711</v>
+        <v>-0.03113498743001192</v>
       </c>
       <c r="M7">
-        <v>-0.006782683123728331</v>
+        <v>-0.03645830180935587</v>
       </c>
       <c r="N7">
-        <v>2015.100669356081</v>
+        <v>2015.690171411679</v>
       </c>
       <c r="O7">
-        <v>-0.1001634860597837</v>
+        <v>-0.01573122225543143</v>
       </c>
       <c r="P7">
-        <v>-0.148945016851997</v>
+        <v>-0.08723859407354773</v>
       </c>
       <c r="Q7">
-        <v>1964.592105263158</v>
+        <v>1971.372478386167</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -798,52 +798,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8541423570595099</v>
+        <v>0.1845493562231755</v>
       </c>
       <c r="C8">
-        <v>0.5070011668611435</v>
+        <v>0.499414748341787</v>
       </c>
       <c r="D8">
-        <v>30746.79113185532</v>
+        <v>55891.53335934452</v>
       </c>
       <c r="E8">
-        <v>0.1621936989498278</v>
+        <v>1.332422941865003</v>
       </c>
       <c r="F8">
-        <v>0.1172695449241555</v>
+        <v>0.3698790479906356</v>
       </c>
       <c r="G8">
-        <v>2.918903150525088</v>
+        <v>0.8263753413968015</v>
       </c>
       <c r="H8">
-        <v>2.283547257876313</v>
+        <v>3.497073741708933</v>
       </c>
       <c r="I8">
-        <v>2.109423746787797E-15</v>
+        <v>0.9461568474443998</v>
       </c>
       <c r="J8">
-        <v>1.378646441073512</v>
+        <v>0.4479126024190412</v>
       </c>
       <c r="K8">
-        <v>1.141773628938151</v>
+        <v>1.055013655872016</v>
       </c>
       <c r="L8">
-        <v>-0.01025024455439571</v>
+        <v>-0.008182244059561684</v>
       </c>
       <c r="M8">
-        <v>-0.04911636306313803</v>
+        <v>-0.0223533900345263</v>
       </c>
       <c r="N8">
-        <v>2015.740465999458</v>
+        <v>2015.80521574048</v>
       </c>
       <c r="O8">
-        <v>0.004932603659220783</v>
+        <v>-0.006207165565278411</v>
       </c>
       <c r="P8">
-        <v>-0.07797997470815228</v>
+        <v>-0.06187409383221896</v>
       </c>
       <c r="Q8">
-        <v>1973.644690781797</v>
+        <v>1965.316426063207</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -851,52 +851,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2638888888888884</v>
+        <v>0.3390677025527185</v>
       </c>
       <c r="C9">
-        <v>0.5703703703703703</v>
+        <v>0.5210876803551608</v>
       </c>
       <c r="D9">
-        <v>54814.81481481482</v>
+        <v>122830.1886792453</v>
       </c>
       <c r="E9">
-        <v>1.355555555555555</v>
+        <v>2.072142064372919</v>
       </c>
       <c r="F9">
-        <v>0.4222222222222229</v>
+        <v>3.496670366259715</v>
       </c>
       <c r="G9">
-        <v>0.5657407407407413</v>
+        <v>1.726415094339623</v>
       </c>
       <c r="H9">
-        <v>3.397222222222224</v>
+        <v>1.776914539400666</v>
       </c>
       <c r="I9">
-        <v>0.9749999999999995</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="J9">
-        <v>0.3212962962962986</v>
+        <v>3.360155382907878</v>
       </c>
       <c r="K9">
-        <v>1.049074074074074</v>
+        <v>4.526082130965587</v>
       </c>
       <c r="L9">
-        <v>-0.009168981405369831</v>
+        <v>0.01126727345384817</v>
       </c>
       <c r="M9">
-        <v>-0.02967015932870428</v>
+        <v>0.01289656116823297</v>
       </c>
       <c r="N9">
-        <v>2015.754848218014</v>
+        <v>2015.505309178241</v>
       </c>
       <c r="O9">
-        <v>-0.6410938006334032</v>
+        <v>-0.02597718597805513</v>
       </c>
       <c r="P9">
-        <v>0.2634520057598588</v>
+        <v>-0.1053121050829754</v>
       </c>
       <c r="Q9">
-        <v>1966.716666666667</v>
+        <v>1957.651498335183</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -904,582 +904,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3221809169764557</v>
+        <v>0.3545673076923073</v>
       </c>
       <c r="C10">
-        <v>0.4981412639405204</v>
+        <v>0.5024038461538461</v>
       </c>
       <c r="D10">
-        <v>116282.5278810409</v>
+        <v>68611.77884615386</v>
       </c>
       <c r="E10">
-        <v>1.995043370508055</v>
+        <v>4.27644230769231</v>
       </c>
       <c r="F10">
-        <v>4.416356877323427</v>
+        <v>3.673076923076926</v>
       </c>
       <c r="G10">
-        <v>2.555142503097893</v>
+        <v>1.154447115384615</v>
       </c>
       <c r="H10">
-        <v>2.089219330855018</v>
+        <v>2.996995192307693</v>
       </c>
       <c r="I10">
-        <v>0.7397769516728623</v>
+        <v>0.8329326923076922</v>
       </c>
       <c r="J10">
-        <v>3.433705080545228</v>
+        <v>2.125000000000001</v>
       </c>
       <c r="K10">
-        <v>8.420074349442366</v>
+        <v>3.066105769230769</v>
       </c>
       <c r="L10">
-        <v>0.03739034645451227</v>
+        <v>-0.01388861490523447</v>
       </c>
       <c r="M10">
-        <v>-0.01209487629552504</v>
+        <v>-0.04979769312324479</v>
       </c>
       <c r="N10">
-        <v>2015.361371568372</v>
+        <v>2015.839816415272</v>
       </c>
       <c r="O10">
-        <v>-0.03860053915069515</v>
+        <v>-0.0004615079281437111</v>
       </c>
       <c r="P10">
-        <v>-0.09856622049569302</v>
+        <v>-0.08053152894656887</v>
       </c>
       <c r="Q10">
-        <v>1959.957868649318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.5359828141783027</v>
-      </c>
-      <c r="C11">
-        <v>0.4908700322234156</v>
-      </c>
-      <c r="D11">
-        <v>63233.08270676692</v>
-      </c>
-      <c r="E11">
-        <v>2.978517722878626</v>
-      </c>
-      <c r="F11">
-        <v>0.8421052631578948</v>
-      </c>
-      <c r="G11">
-        <v>2.813104189044038</v>
-      </c>
-      <c r="H11">
-        <v>3.19656283566058</v>
-      </c>
-      <c r="I11">
-        <v>0.9634801288936626</v>
-      </c>
-      <c r="J11">
-        <v>1.901181525241675</v>
-      </c>
-      <c r="K11">
-        <v>8.931256713211585</v>
-      </c>
-      <c r="L11">
-        <v>0.00256807747369053</v>
-      </c>
-      <c r="M11">
-        <v>0.03113505657751822</v>
-      </c>
-      <c r="N11">
-        <v>2015.733911221535</v>
-      </c>
-      <c r="O11">
-        <v>-0.01236264118499832</v>
-      </c>
-      <c r="P11">
-        <v>-0.0794919887810548</v>
-      </c>
-      <c r="Q11">
-        <v>1950.501611170784</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.3666666666666661</v>
-      </c>
-      <c r="C12">
-        <v>0.5544444444444444</v>
-      </c>
-      <c r="D12">
-        <v>50488.88888888888</v>
-      </c>
-      <c r="E12">
-        <v>2.778888888888889</v>
-      </c>
-      <c r="F12">
-        <v>0.3500000000000005</v>
-      </c>
-      <c r="G12">
-        <v>2.627777777777777</v>
-      </c>
-      <c r="H12">
-        <v>3.144444444444444</v>
-      </c>
-      <c r="I12">
-        <v>1.332267629550188E-15</v>
-      </c>
-      <c r="J12">
-        <v>1.83</v>
-      </c>
-      <c r="K12">
-        <v>1.341111111111112</v>
-      </c>
-      <c r="L12">
-        <v>-0.0332143121939622</v>
-      </c>
-      <c r="M12">
-        <v>-0.05189049858308176</v>
-      </c>
-      <c r="N12">
-        <v>2015.786928972728</v>
-      </c>
-      <c r="O12">
-        <v>-0.04864956632314062</v>
-      </c>
-      <c r="P12">
-        <v>-0.05835184499821713</v>
-      </c>
-      <c r="Q12">
-        <v>1951.673333333333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.8876003568242634</v>
-      </c>
-      <c r="C13">
-        <v>0.4826048171275646</v>
-      </c>
-      <c r="D13">
-        <v>61489.74130240856</v>
-      </c>
-      <c r="E13">
-        <v>0.7930419268510247</v>
-      </c>
-      <c r="F13">
-        <v>0.3577163247100812</v>
-      </c>
-      <c r="G13">
-        <v>0.3264942016057097</v>
-      </c>
-      <c r="H13">
-        <v>2.404995539696699</v>
-      </c>
-      <c r="I13">
-        <v>0.008920606601250491</v>
-      </c>
-      <c r="J13">
-        <v>0.7573595004460312</v>
-      </c>
-      <c r="K13">
-        <v>0.8367528991971422</v>
-      </c>
-      <c r="L13">
-        <v>-0.06512646663341667</v>
-      </c>
-      <c r="M13">
-        <v>0.01375209565842625</v>
-      </c>
-      <c r="N13">
-        <v>2015.753078326192</v>
-      </c>
-      <c r="O13">
-        <v>-0.06074761481833482</v>
-      </c>
-      <c r="P13">
-        <v>-0.111927870803122</v>
-      </c>
-      <c r="Q13">
-        <v>1965.908117752007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.381443298969072</v>
-      </c>
-      <c r="C14">
-        <v>0.5213549337260677</v>
-      </c>
-      <c r="D14">
-        <v>69425.62592047127</v>
-      </c>
-      <c r="E14">
-        <v>3.867452135493373</v>
-      </c>
-      <c r="F14">
-        <v>0.2488954344624452</v>
-      </c>
-      <c r="G14">
-        <v>0.4889543446244469</v>
-      </c>
-      <c r="H14">
-        <v>1.022091310751105</v>
-      </c>
-      <c r="I14">
-        <v>0.9985272459499263</v>
-      </c>
-      <c r="J14">
-        <v>1.961708394698086</v>
-      </c>
-      <c r="K14">
-        <v>8.765832106038278</v>
-      </c>
-      <c r="L14">
-        <v>-0.02910836276344657</v>
-      </c>
-      <c r="M14">
-        <v>0.03851443852071558</v>
-      </c>
-      <c r="N14">
-        <v>2015.808236211404</v>
-      </c>
-      <c r="O14">
-        <v>-0.0311109803431254</v>
-      </c>
-      <c r="P14">
-        <v>-0.08891467887915529</v>
-      </c>
-      <c r="Q14">
-        <v>1944.053019145803</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0.2524630541871915</v>
-      </c>
-      <c r="C15">
-        <v>0.5086206896551724</v>
-      </c>
-      <c r="D15">
-        <v>51995.07389162561</v>
-      </c>
-      <c r="E15">
-        <v>2.729064039408867</v>
-      </c>
-      <c r="F15">
-        <v>0.08128078817734119</v>
-      </c>
-      <c r="G15">
-        <v>0.4482758620689651</v>
-      </c>
-      <c r="H15">
-        <v>0.9975369458128069</v>
-      </c>
-      <c r="I15">
-        <v>0.7204433497536945</v>
-      </c>
-      <c r="J15">
-        <v>1.498768472906404</v>
-      </c>
-      <c r="K15">
-        <v>1.618226600985222</v>
-      </c>
-      <c r="L15">
-        <v>-0.03846912470150137</v>
-      </c>
-      <c r="M15">
-        <v>-0.04132138770251587</v>
-      </c>
-      <c r="N15">
-        <v>2015.745503324669</v>
-      </c>
-      <c r="O15">
-        <v>-0.05426376579617129</v>
-      </c>
-      <c r="P15">
-        <v>-0.0768583317041979</v>
-      </c>
-      <c r="Q15">
-        <v>1939.474137931034</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0.376649746192893</v>
-      </c>
-      <c r="C16">
-        <v>0.5401015228426396</v>
-      </c>
-      <c r="D16">
-        <v>128639.5939086295</v>
-      </c>
-      <c r="E16">
-        <v>2.034517766497462</v>
-      </c>
-      <c r="F16">
-        <v>2.592893401015229</v>
-      </c>
-      <c r="G16">
-        <v>0.9035532994923853</v>
-      </c>
-      <c r="H16">
-        <v>1.395939086294416</v>
-      </c>
-      <c r="I16">
-        <v>0.6558375634517766</v>
-      </c>
-      <c r="J16">
-        <v>3.276142131979694</v>
-      </c>
-      <c r="K16">
-        <v>1.255837563451778</v>
-      </c>
-      <c r="L16">
-        <v>0.003494903360507808</v>
-      </c>
-      <c r="M16">
-        <v>0.02102916925351489</v>
-      </c>
-      <c r="N16">
-        <v>2015.579917197521</v>
-      </c>
-      <c r="O16">
-        <v>-0.01224586581369654</v>
-      </c>
-      <c r="P16">
-        <v>-0.1011219469710816</v>
-      </c>
-      <c r="Q16">
-        <v>1956.040609137056</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0.3536269430051812</v>
-      </c>
-      <c r="C17">
-        <v>-7.771561172376096E-16</v>
-      </c>
-      <c r="D17">
-        <v>72137.30569948186</v>
-      </c>
-      <c r="E17">
-        <v>4.310880829015545</v>
-      </c>
-      <c r="F17">
-        <v>3.740932642487049</v>
-      </c>
-      <c r="G17">
-        <v>1.104922279792745</v>
-      </c>
-      <c r="H17">
-        <v>3.050518134715025</v>
-      </c>
-      <c r="I17">
-        <v>0.8341968911917097</v>
-      </c>
-      <c r="J17">
-        <v>2.177461139896373</v>
-      </c>
-      <c r="K17">
-        <v>3.104922279792746</v>
-      </c>
-      <c r="L17">
-        <v>-0.02354664727237074</v>
-      </c>
-      <c r="M17">
-        <v>-0.02101533721002792</v>
-      </c>
-      <c r="N17">
-        <v>2015.820783020172</v>
-      </c>
-      <c r="O17">
-        <v>-0.006210140717694225</v>
-      </c>
-      <c r="P17">
-        <v>-0.07660753387484141</v>
-      </c>
-      <c r="Q17">
-        <v>1963.527202072539</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0.8275475923852175</v>
-      </c>
-      <c r="C18">
-        <v>0.4927211646136618</v>
-      </c>
-      <c r="D18">
-        <v>26427.77155655095</v>
-      </c>
-      <c r="E18">
-        <v>2.828667413213886</v>
-      </c>
-      <c r="F18">
-        <v>2.629339305711086</v>
-      </c>
-      <c r="G18">
-        <v>2.836506159014557</v>
-      </c>
-      <c r="H18">
-        <v>0.8980963045912631</v>
-      </c>
-      <c r="I18">
-        <v>0.9025755879059352</v>
-      </c>
-      <c r="J18">
-        <v>1.12989921612542</v>
-      </c>
-      <c r="K18">
-        <v>0.2116461366181395</v>
-      </c>
-      <c r="L18">
-        <v>-0.06686022595958446</v>
-      </c>
-      <c r="M18">
-        <v>0.003527129785123474</v>
-      </c>
-      <c r="N18">
-        <v>2015.635494507953</v>
-      </c>
-      <c r="O18">
-        <v>0.006408098392312916</v>
-      </c>
-      <c r="P18">
-        <v>-0.06094983564420552</v>
-      </c>
-      <c r="Q18">
-        <v>1968.947368421053</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0.2813299232736569</v>
-      </c>
-      <c r="C19">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="D19">
-        <v>72020.46035805627</v>
-      </c>
-      <c r="E19">
-        <v>4.276214833759592</v>
-      </c>
-      <c r="F19">
-        <v>3.686700767263429</v>
-      </c>
-      <c r="G19">
-        <v>1.074168797953964</v>
-      </c>
-      <c r="H19">
-        <v>3.057544757033247</v>
-      </c>
-      <c r="I19">
-        <v>0.8618925831202044</v>
-      </c>
-      <c r="J19">
-        <v>2.190537084398978</v>
-      </c>
-      <c r="K19">
-        <v>3.368286445012788</v>
-      </c>
-      <c r="L19">
-        <v>-0.006334640900159616</v>
-      </c>
-      <c r="M19">
-        <v>-0.08284391436044969</v>
-      </c>
-      <c r="N19">
-        <v>2015.860348321667</v>
-      </c>
-      <c r="O19">
-        <v>-0.01061873091725496</v>
-      </c>
-      <c r="P19">
-        <v>-0.08929354172743065</v>
-      </c>
-      <c r="Q19">
-        <v>1963.246803069054</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>0.04925053533190504</v>
-      </c>
-      <c r="C20">
-        <v>0.4967880085653104</v>
-      </c>
-      <c r="D20">
-        <v>58597.43040685225</v>
-      </c>
-      <c r="E20">
-        <v>2.059957173447537</v>
-      </c>
-      <c r="F20">
-        <v>0.4528907922912209</v>
-      </c>
-      <c r="G20">
-        <v>2.778372591006424</v>
-      </c>
-      <c r="H20">
-        <v>3.586723768736618</v>
-      </c>
-      <c r="I20">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="J20">
-        <v>1.508565310492506</v>
-      </c>
-      <c r="K20">
-        <v>3.00321199143469</v>
-      </c>
-      <c r="L20">
-        <v>-0.02940801865008356</v>
-      </c>
-      <c r="M20">
-        <v>-0.03581947630449678</v>
-      </c>
-      <c r="N20">
-        <v>2015.785328260816</v>
-      </c>
-      <c r="O20">
-        <v>-0.03196617394063282</v>
-      </c>
-      <c r="P20">
-        <v>-0.08704632782571944</v>
-      </c>
-      <c r="Q20">
-        <v>1954.790149892934</v>
+        <v>1963.828125</v>
       </c>
     </row>
   </sheetData>
